--- a/velocitychart.xlsx
+++ b/velocitychart.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
   <si>
     <t>Sprint</t>
   </si>
@@ -31,6 +31,18 @@
   </si>
   <si>
     <t>Tech Debit</t>
+  </si>
+  <si>
+    <t>Product Burndown</t>
+  </si>
+  <si>
+    <t>Velocity</t>
+  </si>
+  <si>
+    <t>Estimated Burndown</t>
+  </si>
+  <si>
+    <t>Real Burndown</t>
   </si>
 </sst>
 </file>
@@ -129,30 +141,48 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$11:$C$11</c:f>
+              <c:f>Sheet1!$B$11:$F$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$12:$C$12</c:f>
+              <c:f>Sheet1!$B$12:$F$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -167,30 +197,48 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$11:$C$11</c:f>
+              <c:f>Sheet1!$B$11:$F$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$13:$C$13</c:f>
+              <c:f>Sheet1!$B$13:$F$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -205,30 +253,48 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$11:$C$11</c:f>
+              <c:f>Sheet1!$B$11:$F$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$14:$C$14</c:f>
+              <c:f>Sheet1!$B$14:$F$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -245,11 +311,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2146417736"/>
-        <c:axId val="-2117168184"/>
+        <c:axId val="-2131735112"/>
+        <c:axId val="-2137729224"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2146417736"/>
+        <c:axId val="-2131735112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -288,7 +354,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2117168184"/>
+        <c:crossAx val="-2137729224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -296,7 +362,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2117168184"/>
+        <c:axId val="-2137729224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -336,7 +402,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2146417736"/>
+        <c:crossAx val="-2131735112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -368,6 +434,368 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="2000"/>
+              <a:t>Product Burndown</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Estimated Burndown</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$17:$F$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$18:$F$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>45.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>34.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>23.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Real Burndown</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$17:$F$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$19:$F$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>45.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>37.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Velocity</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$17:$F$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$20:$F$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-2122110984"/>
+        <c:axId val="-2122200232"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-2122110984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="4.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200"/>
+                  <a:t>Sprint</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2122200232"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1.0"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-2122200232"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="45.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200"/>
+                  <a:t>Story Points</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2122110984"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -395,6 +823,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>787400</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -725,17 +1183,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A11:F14"/>
+  <dimension ref="A10:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M35" sqref="M35"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" customWidth="1"/>
+    <col min="1" max="1" width="21" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+    </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>0</v>
@@ -766,6 +1229,16 @@
       <c r="C12">
         <v>14</v>
       </c>
+      <c r="D12">
+        <v>17</v>
+      </c>
+      <c r="E12">
+        <v>18</v>
+      </c>
+      <c r="F12">
+        <f>45-C13-D13-E13</f>
+        <v>13</v>
+      </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
@@ -777,6 +1250,15 @@
       <c r="C13">
         <v>8</v>
       </c>
+      <c r="D13">
+        <v>10</v>
+      </c>
+      <c r="E13">
+        <v>14</v>
+      </c>
+      <c r="F13">
+        <v>13</v>
+      </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
@@ -792,15 +1274,114 @@
       </c>
       <c r="D14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F14">
         <f t="shared" si="0"/>
         <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17">
+        <f>B11</f>
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <f t="shared" ref="C17:F17" si="1">C11</f>
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18">
+        <v>45</v>
+      </c>
+      <c r="C18">
+        <v>34</v>
+      </c>
+      <c r="D18">
+        <v>23</v>
+      </c>
+      <c r="E18">
+        <v>12</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19">
+        <v>45</v>
+      </c>
+      <c r="C19">
+        <f>B19-C20</f>
+        <v>37</v>
+      </c>
+      <c r="D19">
+        <f t="shared" ref="D19:F19" si="2">C19-D20</f>
+        <v>27</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20">
+        <f>B13</f>
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <f t="shared" ref="C20:F20" si="3">C13</f>
+        <v>8</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="3"/>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
